--- a/branches/Update-value-set/ValueSet-vs-hiv-death.xlsx
+++ b/branches/Update-value-set/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>419099009</t>
-  </si>
-  <si>
-    <t>Dead (finding)</t>
+    <t>419620001</t>
+  </si>
+  <si>
+    <t>Death (event)</t>
   </si>
   <si>
     <t/>
